--- a/Test 2.xlsx
+++ b/Test 2.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Muhammed</t>
+  </si>
+  <si>
+    <t>Rasoolulah</t>
   </si>
 </sst>
 </file>
@@ -350,20 +353,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7"/>
+  <dimension ref="D7:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:4">
+    <row r="7" spans="4:5">
       <c r="D7" t="s">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test 2.xlsx
+++ b/Test 2.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="D7:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Test 2.xlsx
+++ b/Test 2.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Muhammed</t>
   </si>
   <si>
     <t>Rasoolulah</t>
+  </si>
+  <si>
+    <t>New branch is opening , please continue</t>
   </si>
 </sst>
 </file>
@@ -57,8 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:E7"/>
+  <dimension ref="D7:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D19" sqref="D19:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -373,7 +379,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D19:J20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
